--- a/table/minigame001.xlsx
+++ b/table/minigame001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6776E2-D16D-4918-8EF8-FFF3FC9CF32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED78F1A0-0513-4956-A963-BF5B7A33B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="57480" yWindow="-1740" windowWidth="29040" windowHeight="17640" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ClickerMonster" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6d7a7778-7713-4053-996d-81236e1b6f0e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27ab6c8e-c592-40e6-bb7b-6b191039641a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5833935-16da-428c-a778-fe780824c6a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0ffcc51-453d-4988-9eff-c393d825e5f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,12 +193,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -618,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B977CF-2AE1-4964-9B58-DC74286AD7EB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -633,10 +651,11 @@
     <col min="3" max="3" width="18.25" style="3" customWidth="1"/>
     <col min="4" max="5" width="28.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="63.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +671,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,8 +694,14 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -686,8 +717,14 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -698,8 +735,14 @@
         <f>B4/SUM(B$4:B$1048576)</f>
         <v>0.5</v>
       </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -710,8 +753,14 @@
         <f t="shared" ref="C5:C7" si="0">B5/SUM(B$4:B$1048576)</f>
         <v>0.4</v>
       </c>
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -722,8 +771,14 @@
         <f t="shared" si="0"/>
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -733,6 +788,12 @@
       <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
